--- a/apps/test/app_predicted.xlsx
+++ b/apps/test/app_predicted.xlsx
@@ -897,6 +897,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -956,21 +957,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -992,8 +989,10 @@
   </sheetPr>
   <dimension ref="A1:JX36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y:Y"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1002,7 +1001,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.46428571428571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7959183673469"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.2091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2091836734694"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2755102040816"/>
     <col collapsed="false" hidden="false" max="10" min="8" style="0" width="8.93877551020408"/>
@@ -1013,7 +1012,7 @@
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="14.7704081632653"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.3265306122449"/>
     <col collapsed="false" hidden="false" max="22" min="21" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="14.2091836734694"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.2091836734694"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.0561224489796"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.2091836734694"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.7142857142857"/>
@@ -1106,6 +1105,7 @@
     <col collapsed="false" hidden="false" max="117" min="117" style="0" width="20.8775510204082"/>
     <col collapsed="false" hidden="false" max="118" min="118" style="0" width="22.4081632653061"/>
     <col collapsed="false" hidden="false" max="119" min="119" style="0" width="20.6020408163265"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="121" min="121" style="0" width="32.9744897959184"/>
     <col collapsed="false" hidden="false" max="122" min="122" style="0" width="20.0510204081633"/>
     <col collapsed="false" hidden="false" max="123" min="123" style="0" width="25.469387755102"/>
@@ -8164,7 +8164,7 @@
       <c r="D11" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="E11" s="3" t="e">
+      <c r="E11" s="1" t="e">
         <f aca="false">(I9+((H9-I9)/20))/G9</f>
         <v>#DIV/0!</v>
       </c>
@@ -9012,7 +9012,7 @@
       <c r="D12" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="E12" s="3" t="e">
+      <c r="E12" s="1" t="e">
         <f aca="false">(I9+((H9-I9)/30))/G9</f>
         <v>#DIV/0!</v>
       </c>
@@ -9860,7 +9860,7 @@
       <c r="D13" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="E13" s="3" t="e">
+      <c r="E13" s="1" t="e">
         <f aca="false">(I9+((H9-I9)/40))/G9</f>
         <v>#DIV/0!</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>0.7</v>
       </c>
       <c r="E17" s="1" t="n">
-        <f aca="false"> G16/(I16+((H16-I16)/10))</f>
+        <f aca="false">G16/(I16+((H16-I16)/10))</f>
         <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -13283,7 +13283,7 @@
         <v>0.7</v>
       </c>
       <c r="E18" s="1" t="n">
-        <f aca="false"> G16/(I16+((H16-I16)/20))</f>
+        <f aca="false">G16/(I16+((H16-I16)/20))</f>
         <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -14125,7 +14125,7 @@
         <v>0.7</v>
       </c>
       <c r="E19" s="1" t="n">
-        <f aca="false"> G16/(I16+((H16-I16)/30))</f>
+        <f aca="false">G16/(I16+((H16-I16)/30))</f>
         <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -14967,7 +14967,7 @@
         <v>0.7</v>
       </c>
       <c r="E20" s="1" t="n">
-        <f aca="false"> G16/(I16+((H16-I16)/40))</f>
+        <f aca="false">G16/(I16+((H16-I16)/40))</f>
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -15809,7 +15809,7 @@
         <v>0.7</v>
       </c>
       <c r="E21" s="1" t="n">
-        <f aca="false"> G16/(I16+((H16-I16)/50))</f>
+        <f aca="false">G16/(I16+((H16-I16)/50))</f>
         <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -16651,7 +16651,7 @@
         <v>0.7</v>
       </c>
       <c r="E22" s="1" t="n">
-        <f aca="false"> G16/(I16+((H16-I16)/60))</f>
+        <f aca="false">G16/(I16+((H16-I16)/60))</f>
         <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -19218,7 +19218,7 @@
       <c r="D26" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="E26" s="3" t="e">
+      <c r="E26" s="1" t="e">
         <f aca="false">(I23+((H23-I23)/30))/G23</f>
         <v>#DIV/0!</v>
       </c>
@@ -21744,7 +21744,7 @@
       <c r="D29" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="E29" s="3" t="e">
+      <c r="E29" s="1" t="e">
         <f aca="false">(I23+((H23-I23)/60))/G23</f>
         <v>#DIV/0!</v>
       </c>

--- a/apps/test/app_predicted.xlsx
+++ b/apps/test/app_predicted.xlsx
@@ -990,9 +990,9 @@
   <dimension ref="A1:JX36"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="topRight" activeCell="Y38" activeCellId="0" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2228,8 +2228,8 @@
         <v>33.92</v>
       </c>
       <c r="W3" s="1" t="n">
-        <f aca="false">G3/M3</f>
-        <v>6.16483516483517</v>
+        <f aca="false">H3/N3</f>
+        <v>17.6473988439306</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>33.92</v>
@@ -3079,8 +3079,8 @@
         <v>46.31</v>
       </c>
       <c r="W4" s="1" t="n">
-        <f aca="false">G4/M4</f>
-        <v>8.25384615384616</v>
+        <f aca="false">H4/N4</f>
+        <v>28.087962962963</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>46.31</v>
@@ -3930,8 +3930,8 @@
         <v>52.49</v>
       </c>
       <c r="W5" s="1" t="n">
-        <f aca="false">G5/M5</f>
-        <v>10.0955414012739</v>
+        <f aca="false">H5/N5</f>
+        <v>29.96699669967</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>52.49</v>
@@ -4781,8 +4781,8 @@
         <v>56.31</v>
       </c>
       <c r="W6" s="1" t="n">
-        <f aca="false">G6/M6</f>
-        <v>10.6989795918367</v>
+        <f aca="false">H6/N6</f>
+        <v>35.4005847953216</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>56.31</v>
@@ -5632,8 +5632,8 @@
         <v>58.83</v>
       </c>
       <c r="W7" s="1" t="n">
-        <f aca="false">G7/M7</f>
-        <v>11.1495726495727</v>
+        <f aca="false">H7/N7</f>
+        <v>44.0816326530612</v>
       </c>
       <c r="X7" s="0" t="n">
         <v>58.83</v>
@@ -6483,8 +6483,8 @@
         <v>60.64</v>
       </c>
       <c r="W8" s="1" t="n">
-        <f aca="false">G8/M8</f>
-        <v>11.8631178707224</v>
+        <f aca="false">H8/N8</f>
+        <v>35</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>60.64</v>
@@ -7302,6 +7302,7 @@
       <c r="V9" s="0" t="n">
         <v>2.62</v>
       </c>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -7367,8 +7368,8 @@
         <v>9.77</v>
       </c>
       <c r="W10" s="1" t="n">
-        <f aca="false">G10/M10</f>
-        <v>0</v>
+        <f aca="false">H10/N10</f>
+        <v>9.76569037656904</v>
       </c>
       <c r="X10" s="0" t="n">
         <v>13.38</v>
@@ -8215,8 +8216,8 @@
         <v>11.59</v>
       </c>
       <c r="W11" s="1" t="n">
-        <f aca="false">G11/M11</f>
-        <v>0</v>
+        <f aca="false">H11/N11</f>
+        <v>13.8373493975904</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>14.33</v>
@@ -9063,8 +9064,8 @@
         <v>12.4</v>
       </c>
       <c r="W12" s="1" t="n">
-        <f aca="false">G12/M12</f>
-        <v>0</v>
+        <f aca="false">H12/N12</f>
+        <v>15.9258400926999</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>17.35</v>
@@ -9911,8 +9912,8 @@
         <v>12.83</v>
       </c>
       <c r="W13" s="1" t="n">
-        <f aca="false">G13/M13</f>
-        <v>0</v>
+        <f aca="false">H13/N13</f>
+        <v>17.2290292177191</v>
       </c>
       <c r="X13" s="0" t="n">
         <v>17.97</v>
@@ -10759,8 +10760,8 @@
         <v>13.21</v>
       </c>
       <c r="W14" s="1" t="n">
-        <f aca="false">G14/M14</f>
-        <v>0</v>
+        <f aca="false">H14/N14</f>
+        <v>17.9984326018809</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>18.51</v>
@@ -11607,8 +11608,8 @@
         <v>13.38</v>
       </c>
       <c r="W15" s="1" t="n">
-        <f aca="false">G15/M15</f>
-        <v>0</v>
+        <f aca="false">H15/N15</f>
+        <v>18.7544338335607</v>
       </c>
       <c r="X15" s="0" t="n">
         <v>18.82</v>
@@ -12426,6 +12427,7 @@
       <c r="V16" s="0" t="n">
         <v>5.03</v>
       </c>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -12491,8 +12493,8 @@
         <v>9.01</v>
       </c>
       <c r="W17" s="1" t="n">
-        <f aca="false">G17/M17</f>
-        <v>0</v>
+        <f aca="false">H17/N17</f>
+        <v>13.36958443855</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>13.22</v>
@@ -13333,8 +13335,8 @@
         <v>9.72</v>
       </c>
       <c r="W18" s="1" t="n">
-        <f aca="false">G18/M18</f>
-        <v>0</v>
+        <f aca="false">H18/N18</f>
+        <v>13.9657701711491</v>
       </c>
       <c r="X18" s="0" t="n">
         <v>14.22</v>
@@ -14175,8 +14177,8 @@
         <v>10.32</v>
       </c>
       <c r="W19" s="1" t="n">
-        <f aca="false">G19/M19</f>
-        <v>0</v>
+        <f aca="false">H19/N19</f>
+        <v>14.5704334365325</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>15.05</v>
@@ -15017,8 +15019,8 @@
         <v>10.86</v>
       </c>
       <c r="W20" s="1" t="n">
-        <f aca="false">G20/M20</f>
-        <v>0</v>
+        <f aca="false">H20/N20</f>
+        <v>15.321375186846</v>
       </c>
       <c r="X20" s="0" t="n">
         <v>15.81</v>
@@ -15859,8 +15861,8 @@
         <v>11.4</v>
       </c>
       <c r="W21" s="1" t="n">
-        <f aca="false">G21/M21</f>
-        <v>0</v>
+        <f aca="false">H21/N21</f>
+        <v>16.015873015873</v>
       </c>
       <c r="X21" s="0" t="n">
         <v>16.54</v>
@@ -16701,8 +16703,8 @@
         <v>11.89</v>
       </c>
       <c r="W22" s="1" t="n">
-        <f aca="false">G22/M22</f>
-        <v>0</v>
+        <f aca="false">H22/N22</f>
+        <v>16.4109965635739</v>
       </c>
       <c r="X22" s="0" t="n">
         <v>17.19</v>
@@ -17514,6 +17516,7 @@
       <c r="V23" s="0" t="n">
         <v>5.94</v>
       </c>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -17579,8 +17582,8 @@
         <v>18.31</v>
       </c>
       <c r="W24" s="1" t="n">
-        <f aca="false">G24/M24</f>
-        <v>0</v>
+        <f aca="false">H24/N24</f>
+        <v>12.4615384615385</v>
       </c>
       <c r="X24" s="0" t="n">
         <v>16.85</v>
@@ -18427,8 +18430,8 @@
         <v>20.66</v>
       </c>
       <c r="W25" s="1" t="n">
-        <f aca="false">G25/M25</f>
-        <v>0</v>
+        <f aca="false">H25/N25</f>
+        <v>10.3275862068966</v>
       </c>
       <c r="X25" s="0" t="n">
         <v>21.73</v>
@@ -19269,8 +19272,8 @@
         <v>21.59</v>
       </c>
       <c r="W26" s="1" t="n">
-        <f aca="false">G26/M26</f>
-        <v>0</v>
+        <f aca="false">H26/N26</f>
+        <v>12.7165991902834</v>
       </c>
       <c r="X26" s="0" t="n">
         <v>22.2</v>
@@ -20111,8 +20114,8 @@
         <v>22.07</v>
       </c>
       <c r="W27" s="1" t="n">
-        <f aca="false">G27/M27</f>
-        <v>0</v>
+        <f aca="false">H27/N27</f>
+        <v>11.7457865168539</v>
       </c>
       <c r="X27" s="0" t="n">
         <v>22.79</v>
@@ -20953,8 +20956,8 @@
         <v>22.38</v>
       </c>
       <c r="W28" s="1" t="n">
-        <f aca="false">G28/M28</f>
-        <v>0</v>
+        <f aca="false">H28/N28</f>
+        <v>14.7850070721358</v>
       </c>
       <c r="X28" s="0" t="n">
         <v>22.67</v>
@@ -21795,8 +21798,8 @@
         <v>22.39</v>
       </c>
       <c r="W29" s="1" t="n">
-        <f aca="false">G29/M29</f>
-        <v>0</v>
+        <f aca="false">H29/N29</f>
+        <v>12.0307101727447</v>
       </c>
       <c r="X29" s="0" t="n">
         <v>23.3</v>
@@ -22611,6 +22614,7 @@
       <c r="V30" s="0" t="n">
         <v>2.94</v>
       </c>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -22679,8 +22683,8 @@
         <v>20.24</v>
       </c>
       <c r="W31" s="1" t="n">
-        <f aca="false">G31/M31</f>
-        <v>5.07096774193548</v>
+        <f aca="false">H31/N31</f>
+        <v>10.0029069767442</v>
       </c>
       <c r="X31" s="0" t="n">
         <v>20.36</v>
@@ -23524,8 +23528,8 @@
         <v>29.89</v>
       </c>
       <c r="W32" s="1" t="n">
-        <f aca="false">G32/M32</f>
-        <v>5.69083969465649</v>
+        <f aca="false">H32/N32</f>
+        <v>17.4447300771208</v>
       </c>
       <c r="X32" s="0" t="n">
         <v>29.89</v>
@@ -24369,8 +24373,8 @@
         <v>35.4</v>
       </c>
       <c r="W33" s="1" t="n">
-        <f aca="false">G33/M33</f>
-        <v>7.36912751677852</v>
+        <f aca="false">H33/N33</f>
+        <v>22.2297592997812</v>
       </c>
       <c r="X33" s="0" t="n">
         <v>35.65</v>
@@ -25214,8 +25218,8 @@
         <v>38.85</v>
       </c>
       <c r="W34" s="1" t="n">
-        <f aca="false">G34/M34</f>
-        <v>8.33333333333333</v>
+        <f aca="false">H34/N34</f>
+        <v>23.7592267135325</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>40.84</v>
@@ -26059,8 +26063,8 @@
         <v>42.02</v>
       </c>
       <c r="W35" s="1" t="n">
-        <f aca="false">G35/M35</f>
-        <v>8.36426914153132</v>
+        <f aca="false">H35/N35</f>
+        <v>27.0272</v>
       </c>
       <c r="X35" s="0" t="n">
         <v>43.2</v>
@@ -26904,8 +26908,8 @@
         <v>43.77</v>
       </c>
       <c r="W36" s="1" t="n">
-        <f aca="false">G36/M36</f>
-        <v>10.1891252955083</v>
+        <f aca="false">H36/N36</f>
+        <v>34.5692307692308</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>45.65</v>
